--- a/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts24_clu.xlsx
+++ b/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts24_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D357C0B6-E154-497D-9EDB-A29A3E0AA280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{606F17E3-DCCB-49DC-A420-6DA918D7E677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -417,10 +417,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S3aH4,S1aH2,S2aH3,S3aH6,S3aH2,S1aH5,S2aH4,S2aH5,S1aH3,S3aH3,S1aH4,S2aH2,S1aH6,S2aH6,S3aH5</t>
-  </si>
-  <si>
-    <t>S3aH8,S1aH1,S2aH7,S3aH1,S1aH7,S2aH8,S2aH1,S3aH7,S1aH8</t>
+    <t>S1aH3,S1aH5,S2aH4,S2aH5,S1aH6,S1aH4,S2aH2,S2aH6,S3aH5,S3aH3,S1aH2,S2aH3,S3aH6,S3aH4,S3aH2</t>
+  </si>
+  <si>
+    <t>S2aH8,S1aH7,S1aH8,S2aH1,S3aH7,S3aH1,S1aH1,S2aH7,S3aH8</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -448,10 +448,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -659,7 +658,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -683,8 +682,6 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -737,7 +734,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC95FBC-AE1F-C94D-07ED-671E807537A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80E7D288-E955-8221-8F64-EB3B334A19C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1145,7 +1142,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S3aH8,S1aH1,S2aH7,S3aH1,S1aH7,S2aH8,S2aH1,S3aH7,S1aH8</v>
+        <v>S2aH8,S1aH7,S1aH8,S2aH1,S3aH7,S3aH1,S1aH1,S2aH7,S3aH8</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1177,7 +1174,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S3aH4,S1aH2,S2aH3,S3aH6,S3aH2,S1aH5,S2aH4,S2aH5,S1aH3,S3aH3,S1aH4,S2aH2,S1aH6,S2aH6,S3aH5</v>
+        <v>S1aH3,S1aH5,S2aH4,S2aH5,S1aH6,S1aH4,S2aH2,S2aH6,S3aH5,S3aH3,S1aH2,S2aH3,S3aH6,S3aH4,S3aH2</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1790,7 +1787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5432C9C-62F3-41D6-82A6-97F5E0A1CB82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6933E1-49B0-489C-9ACF-BB1BDB7FB236}">
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1904,7 +1901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11308CE-78DD-46D8-9D2B-D79709AF53DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCF29B6-420E-450F-A980-9DDC4295D411}">
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1923,16 +1920,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="9" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="11" t="s">
@@ -1985,13 +1982,13 @@
       <c r="O10" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="Q10" s="22" t="s">
+      <c r="Q10" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="R10" s="22" t="s">
+      <c r="R10" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="S10" s="22" t="s">
+      <c r="S10" s="20" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2023,8 +2020,8 @@
       <c r="L11" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="M11" s="19">
-        <v>926.19824112516892</v>
+      <c r="M11" s="17">
+        <v>0.1938430342782852</v>
       </c>
       <c r="N11" s="13" t="s">
         <v>94</v>
@@ -2032,13 +2029,13 @@
       <c r="O11" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="Q11" s="23" t="s">
+      <c r="Q11" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="R11" s="24">
+      <c r="R11" s="22">
         <v>8.4099424771755762E-2</v>
       </c>
-      <c r="S11" s="23" t="s">
+      <c r="S11" s="21" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2070,8 +2067,8 @@
       <c r="L12" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="M12" s="20">
-        <v>128.48330667711551</v>
+      <c r="M12" s="18">
+        <v>2.6668071678084892E-2</v>
       </c>
       <c r="N12" s="15" t="s">
         <v>94</v>
@@ -2079,13 +2076,13 @@
       <c r="O12" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="Q12" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="R12" s="26">
-        <v>0.95029816876880036</v>
-      </c>
-      <c r="S12" s="25" t="s">
+      <c r="Q12" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="R12" s="24">
+        <v>0.16560240645944377</v>
+      </c>
+      <c r="S12" s="23" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2117,8 +2114,8 @@
       <c r="L13" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="M13" s="19">
-        <v>130.12874369322392</v>
+      <c r="M13" s="17">
+        <v>2.7005130993325931E-2</v>
       </c>
       <c r="N13" s="13" t="s">
         <v>94</v>
@@ -2126,13 +2123,13 @@
       <c r="O13" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="Q13" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="R13" s="24">
-        <v>0.16560240645944377</v>
-      </c>
-      <c r="S13" s="23" t="s">
+      <c r="Q13" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="R13" s="22">
+        <v>0.95029816876880036</v>
+      </c>
+      <c r="S13" s="21" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2164,8 +2161,8 @@
       <c r="L14" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="M14" s="20">
-        <v>131.76306489386027</v>
+      <c r="M14" s="18">
+        <v>2.738349268768735E-2</v>
       </c>
       <c r="N14" s="15" t="s">
         <v>94</v>
@@ -2202,8 +2199,8 @@
       <c r="L15" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="M15" s="19">
-        <v>807.99900177322559</v>
+      <c r="M15" s="17">
+        <v>0.16812362995623994</v>
       </c>
       <c r="N15" s="13" t="s">
         <v>94</v>
@@ -2240,8 +2237,8 @@
       <c r="L16" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="M16" s="20">
-        <v>280.17739042568212</v>
+      <c r="M16" s="18">
+        <v>5.8351659369163873E-2</v>
       </c>
       <c r="N16" s="15" t="s">
         <v>94</v>
@@ -2278,8 +2275,8 @@
       <c r="L17" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M17" s="19">
-        <v>139.74162163137976</v>
+      <c r="M17" s="17">
+        <v>2.9097513134079184E-2</v>
       </c>
       <c r="N17" s="13" t="s">
         <v>94</v>
@@ -2316,8 +2313,8 @@
       <c r="L18" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="M18" s="20">
-        <v>687.41323816988699</v>
+      <c r="M18" s="18">
+        <v>0.143410013296216</v>
       </c>
       <c r="N18" s="15" t="s">
         <v>94</v>
@@ -2354,8 +2351,8 @@
       <c r="L19" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="M19" s="19">
-        <v>286.07395185143832</v>
+      <c r="M19" s="17">
+        <v>6.0724290499253993E-2</v>
       </c>
       <c r="N19" s="13" t="s">
         <v>94</v>
@@ -2392,8 +2389,8 @@
       <c r="L20" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="M20" s="20">
-        <v>39.486347588941186</v>
+      <c r="M20" s="18">
+        <v>8.3834179179408108E-3</v>
       </c>
       <c r="N20" s="15" t="s">
         <v>94</v>
@@ -2430,8 +2427,8 @@
       <c r="L21" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="M21" s="19">
-        <v>39.835401677192912</v>
+      <c r="M21" s="17">
+        <v>8.4581681043188073E-3</v>
       </c>
       <c r="N21" s="13" t="s">
         <v>94</v>
@@ -2468,8 +2465,8 @@
       <c r="L22" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="M22" s="20">
-        <v>39.73556723351939</v>
+      <c r="M22" s="18">
+        <v>8.4498575755891387E-3</v>
       </c>
       <c r="N22" s="15" t="s">
         <v>94</v>
@@ -2506,8 +2503,8 @@
       <c r="L23" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M23" s="19">
-        <v>223.48251550278781</v>
+      <c r="M23" s="17">
+        <v>4.7476237010599713E-2</v>
       </c>
       <c r="N23" s="13" t="s">
         <v>94</v>
@@ -2544,8 +2541,8 @@
       <c r="L24" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="M24" s="20">
-        <v>77.361493518519453</v>
+      <c r="M24" s="18">
+        <v>1.6372393639637398E-2</v>
       </c>
       <c r="N24" s="15" t="s">
         <v>94</v>
@@ -2582,8 +2579,8 @@
       <c r="L25" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="M25" s="19">
-        <v>39.00986214215159</v>
+      <c r="M25" s="17">
+        <v>8.2132022360418833E-3</v>
       </c>
       <c r="N25" s="13" t="s">
         <v>94</v>
@@ -2620,8 +2617,8 @@
       <c r="L26" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="M26" s="20">
-        <v>200.16746355713784</v>
+      <c r="M26" s="18">
+        <v>4.219049536798028E-2</v>
       </c>
       <c r="N26" s="15" t="s">
         <v>94</v>
@@ -2658,8 +2655,8 @@
       <c r="L27" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="M27" s="19">
-        <v>169.10309860617267</v>
+      <c r="M27" s="17">
+        <v>3.6662071087535136E-2</v>
       </c>
       <c r="N27" s="13" t="s">
         <v>94</v>
@@ -2696,8 +2693,8 @@
       <c r="L28" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="M28" s="20">
-        <v>23.985187432088011</v>
+      <c r="M28" s="18">
+        <v>5.330109965263727E-3</v>
       </c>
       <c r="N28" s="15" t="s">
         <v>94</v>
@@ -2734,8 +2731,8 @@
       <c r="L29" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="M29" s="19">
-        <v>23.958707950812247</v>
+      <c r="M29" s="17">
+        <v>5.3335867092306685E-3</v>
       </c>
       <c r="N29" s="13" t="s">
         <v>94</v>
@@ -2772,8 +2769,8 @@
       <c r="L30" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="M30" s="20">
-        <v>24.447082907321526</v>
+      <c r="M30" s="18">
+        <v>5.5226868815515763E-3</v>
       </c>
       <c r="N30" s="15" t="s">
         <v>94</v>
@@ -2810,8 +2807,8 @@
       <c r="L31" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="M31" s="19">
-        <v>145.4691779319914</v>
+      <c r="M31" s="17">
+        <v>3.1515657407784566E-2</v>
       </c>
       <c r="N31" s="13" t="s">
         <v>94</v>
@@ -2848,8 +2845,8 @@
       <c r="L32" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="M32" s="20">
-        <v>47.742216627882641</v>
+      <c r="M32" s="18">
+        <v>1.0408000848768471E-2</v>
       </c>
       <c r="N32" s="15" t="s">
         <v>94</v>
@@ -2886,8 +2883,8 @@
       <c r="L33" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="M33" s="19">
-        <v>23.688633450985318</v>
+      <c r="M33" s="17">
+        <v>5.1164171189268335E-3</v>
       </c>
       <c r="N33" s="13" t="s">
         <v>94</v>
@@ -2924,8 +2921,8 @@
       <c r="L34" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="M34" s="20">
-        <v>120.06411007239235</v>
+      <c r="M34" s="18">
+        <v>2.5960862236259676E-2</v>
       </c>
       <c r="N34" s="15" t="s">
         <v>94</v>
@@ -2944,7 +2941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E9A772-36AC-49EA-9AA7-90AE42297C05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40843E7E-A2C5-4C59-BA19-2E2837D120A2}">
   <dimension ref="B2:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
